--- a/MAMARIL JOSEFINA PEREY.xlsx
+++ b/MAMARIL JOSEFINA PEREY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED14F36C-B4BD-4092-B794-DA0B203B7C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFACC3C3-37D3-44F9-B79B-B24C5E2C9BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -2363,7 +2363,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2710,12 +2710,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A80" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A80" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
+      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4497,18 +4497,24 @@
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="49">
+        <v>44814</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>44835</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
@@ -4517,7 +4523,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -4537,9 +4543,11 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B88" s="20"/>
+        <v>44896</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
@@ -4553,31 +4561,25 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
+      <c r="K88" s="49">
+        <v>44918</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C89" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A89" s="40"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="49">
-        <v>44918</v>
-      </c>
+      <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
@@ -5220,36 +5222,20 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="39"/>
+      <c r="A130" s="41"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="43"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
+      <c r="F130" s="15"/>
+      <c r="G130" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H130" s="39"/>
+      <c r="H130" s="43"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
